--- a/WebCrawlers/Sprint3/manual/locations.xlsx
+++ b/WebCrawlers/Sprint3/manual/locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roland\Documents\School\Y4S1\JDes\github\neighborhood-pulse\WebCrawlers\Sprint3\manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337F9A45-AA12-4C20-989D-1293ACBA36F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632F3211-14F0-46D1-B40D-10CBE56519F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16440" yWindow="1752" windowWidth="13140" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>name</t>
   </si>
@@ -39,185 +39,67 @@
     <t>link</t>
   </si>
   <si>
-    <t>Georgia Aquarium</t>
-  </si>
-  <si>
-    <t>Georgia Aquarium, Inc. operates an aquarium in Georgia. Its aquarium acts as an aquatic science education institution that entertains and educates, features exhibits and programs, and offers engaging guest experiences that promote the conservation of aquatic biodiversity throughout the world. The company is also engaged in the rescue and rehabilitation of loggerhead sea turtles, and releasing them back to their natural habitats; undertaking research projects on whale sharks in Mexico; the research and rescue of dolphins and small whales in Northeast Florida; and working in accredited zoos and aquariums. Georgia Aquarium, Inc. was formerly known as The Serpentine Foundation, Inc. and changed its name to Georgia Aquarium, Inc. in November 2001. The company was incorporated in 2000 and is based in Atlanta, Georgia. Wikipedia</t>
-  </si>
-  <si>
-    <t>225 Baker St NW, Atlanta, GA 30313</t>
-  </si>
-  <si>
-    <t>https://www.georgiaaquarium.org/</t>
-  </si>
-  <si>
-    <t>Centennial Olympic Park</t>
-  </si>
-  <si>
-    <t>265 Park Ave W NW, Atlanta, GA 30313</t>
-  </si>
-  <si>
-    <t>Centennial Olympic Park is a 22-acre public park located in downtown Atlanta, Georgia owned and operated by the Georgia World Congress Center Authority. It was built by the Atlanta Committee for the Olympic Games as part of the infrastructure improvements for the 1996 Summer Olympics</t>
-  </si>
-  <si>
-    <t>https://www.gwcca.org/park/</t>
-  </si>
-  <si>
-    <t>World of Coca-Cola</t>
-  </si>
-  <si>
-    <t>121 Baker St NW, Atlanta, GA 30313</t>
-  </si>
-  <si>
-    <t>The World of Coca-Cola is a museum, located in Atlanta, Georgia, showcasing the history of the Coca-Cola Company. The 20-acre complex opened to the public on May 24, 2007, relocating from and replacing the original exhibit, which was founded in 1990 in Underground Atlanta</t>
-  </si>
-  <si>
-    <t>https://www.worldofcoca-cola.com/</t>
-  </si>
-  <si>
-    <t>Piedmont Park</t>
-  </si>
-  <si>
-    <t>400 Park Dr NE, Atlanta, GA 30306</t>
-  </si>
-  <si>
-    <t>Piedmont Park is an urban park in Atlanta, Georgia, located about 1 mile northeast of Downtown, between the Midtown and Virginia Highland neighborhoods. Originally the land was owned by Dr. Benjamin Walker, who used it as his out-of-town gentleman's farm and residence</t>
-  </si>
-  <si>
-    <t>https://www.piedmontpark.org/venue-rentals/</t>
-  </si>
-  <si>
-    <t>Martin Luther King, Jr. National Historical Park</t>
-  </si>
-  <si>
-    <t>http://www.nps.gov/malu/index.htm</t>
-  </si>
-  <si>
-    <t>450 Auburn Ave NE, Atlanta, GA 30312</t>
-  </si>
-  <si>
-    <t>The Martin Luther King Jr. National Historical Park consists of several buildings in Atlanta, Georgia, including Martin Luther King Jr.'s boyhood home and the original Ebenezer Baptist Church, the church where King was baptized and both his father Martin Luther King Sr. and he were pastors.</t>
-  </si>
-  <si>
-    <t>CNN Studio Tours</t>
-  </si>
-  <si>
-    <t>The CNN Center in Atlanta, Georgia, is the world headquarters of CNN. The main newsrooms and studios for several of CNN's news channels are located in the building. The facility's commercial office space is occupied by various units of the former Turner Broadcasting System, now part of the AT&amp;T subsidiary WarnerMedia</t>
-  </si>
-  <si>
-    <t>190 Marietta St NW, Atlanta, GA 30303</t>
-  </si>
-  <si>
-    <t>http://tours.cnn.com/#</t>
-  </si>
-  <si>
-    <t>Zoo Atlanta</t>
-  </si>
-  <si>
-    <t>http://www.zooatlanta.org/</t>
-  </si>
-  <si>
-    <t>Zoo Atlanta is an Association of Zoos and Aquariums accredited zoological park in Atlanta, Georgia. The current President and CEO of Zoo Atlanta is Raymond B. King</t>
-  </si>
-  <si>
-    <t>800 Cherokee Ave SE, Atlanta, GA 30315</t>
-  </si>
-  <si>
-    <t>Atlanta Botanical Garden</t>
-  </si>
-  <si>
-    <t>The Atlanta Botanical Garden is a 30 acres botanical garden located adjacent to Piedmont Park in Midtown Atlanta, Georgia, United States. Incorporated in 1976, the garden's mission is to "develop and maintain plant collections for the purposes of display, education, conservation, research and enjoyment</t>
-  </si>
-  <si>
-    <t>1345 Piedmont Ave NE, Atlanta, GA 30309</t>
-  </si>
-  <si>
-    <t>http://www.atlantabg.org/</t>
-  </si>
-  <si>
-    <t>http://www.high.org/</t>
-  </si>
-  <si>
-    <t>High Museum of Art</t>
-  </si>
-  <si>
-    <t>1280 Peachtree St NE, Atlanta, GA 30309</t>
-  </si>
-  <si>
-    <t>The High Museum of Art, located in Atlanta, is a leading art museum in the Southeastern United States. Located on Peachtree Street in Midtown, the city's arts district, the High is a division of the Woodruff Arts Center. In 2010 it had 509,000 visitors, 95th among world art museums</t>
-  </si>
-  <si>
-    <t>http://www.atlantahistorycenter.com/</t>
-  </si>
-  <si>
-    <t>Atlanta History Center is a history museum and research center located in the Buckhead district of Atlanta, Georgia. The Museum was founded in 1926 and currently consists of nine permanent, and several temporary, exhibitions</t>
-  </si>
-  <si>
-    <t>130 West Paces Ferry Rd NW, Atlanta, GA 30305</t>
-  </si>
-  <si>
-    <t>Atlanta History Center</t>
-  </si>
-  <si>
-    <t>Fernbank Museum</t>
-  </si>
-  <si>
-    <t>767 Clifton Rd, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>Fernbank Museum of Natural History, in Atlanta, is a museum that presents exhibitions and programming about natural history. Fernbank Museum has a number of permanent exhibitions and regularly hosts temporary exhibitions in its expansive facility, designed by Graham Gund Architects</t>
-  </si>
-  <si>
-    <t>http://fernbankmuseum.org/</t>
-  </si>
-  <si>
-    <t>Margaret Mitchell House</t>
-  </si>
-  <si>
-    <t>979 Crescent Ave NE, Atlanta, GA 30309</t>
-  </si>
-  <si>
-    <t>The Margaret Mitchell House is a historic house museum located in Atlanta, Georgia. The structure was the home of author Margaret Mitchell in the early 20th century. It is located in Midtown, at 979 Crescent Avenue</t>
-  </si>
-  <si>
-    <t>http://www.atlantahistorycenter.com/explore/destinations/margaret-mitchell-house</t>
-  </si>
-  <si>
-    <t>Fox Theatre</t>
-  </si>
-  <si>
-    <t>The Fox Theatre, a former movie palace, is a performing arts venue located at 660 Peachtree Street NE in Midtown Atlanta, Georgia, and is the centerpiece of the Fox Theatre Historic District. The theater was originally planned as part of a large Shrine Temple as evidenced by its Moorish design</t>
-  </si>
-  <si>
-    <t>660 Peachtree St NE, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>http://www.foxtheatre.org/</t>
-  </si>
-  <si>
-    <t>Six Flags Over Georgia</t>
-  </si>
-  <si>
-    <t>Six Flags Over Georgia is a 290-acre theme park located west of Atlanta in unincorporated Cobb County, Georgia, United States</t>
-  </si>
-  <si>
-    <t>275 Riverside Pkwy, Austell, GA 30168</t>
-  </si>
-  <si>
-    <t>https://www.sixflags.com/overgeorgia</t>
+    <t>Odyssey Villas – Intact Families</t>
+  </si>
+  <si>
+    <t>The Office of Emergency and Transitional Housing is comprised of an Assessment Center, Supportive Services and Transitional Housing programs that provide support and structure for male, women and children relearning and developing</t>
+  </si>
+  <si>
+    <t>625 Spencer Street, NW, Atlanta, GA 30318</t>
+  </si>
+  <si>
+    <t>https://www.homelessshelterdirectory.org/cgi-bin/id/shelter.cgi?shelter=15089</t>
+  </si>
+  <si>
+    <t>The Salvation Army Metro Atlanta Red Shield Service - Atlanta, GA</t>
+  </si>
+  <si>
+    <t>469 Marietta Street, Atlanta, GA 30313</t>
+  </si>
+  <si>
+    <t>Supportive Emergency shelter, $10/night, Harbor Light Drug treament $1800/monthHOUSING PROGRAMS PROVIDED:Cold Weather Program: When the weather is below 40 degrees and if the applicant is not intoxicated.</t>
+  </si>
+  <si>
+    <t>https://www.homelessshelterdirectory.org/cgi-bin/id/shelter.cgi?shelter=10604</t>
+  </si>
+  <si>
+    <t>The Shepherd's Inn Downtown Atlanta Homeless Shelter - Atlanta, GA</t>
+  </si>
+  <si>
+    <t>165 Ivan Allen Blvd NW, Atlanta, GA 30313</t>
+  </si>
+  <si>
+    <t>Programs at The Shepherd's Inn are designed to solve the problem of homelessness one person at a time, by extending the love, compassion and hope found in Christ. We start by offering a warm place to sleep, a hot meal and an environment where our staff can engage each person to hear their story. Our shelter programs may help a man secure a job, find a transitional housing solution or enter a recovery program to address life controlling issues that feed the cycle of homelessness.</t>
+  </si>
+  <si>
+    <t>https://www.homelessshelterdirectory.org/cgi-bin/id/shelter.cgi?shelter=11041</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -237,13 +119,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -523,16 +409,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
     <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" customWidth="1"/>
   </cols>
@@ -551,14 +437,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
@@ -575,7 +461,7 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -589,166 +475,16 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{91494899-7DC4-477E-9008-2F3E630EED6D}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{03DFEE0F-85FC-44E2-8CE5-BEED9B908F73}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>